--- a/InputFiles/CCDI/CCDIRowDataValidation_phs002790-1.xlsx
+++ b/InputFiles/CCDI/CCDIRowDataValidation_phs002790-1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF05A16B-CFF7-483E-A95C-C09D1EB6E838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CD7EE4-F7C1-429F-828D-3A4A1C6B0E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -708,9 +708,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:A121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122:XFD1374"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
